--- a/Team-Data/2013-14/2-11-2013-14.xlsx
+++ b/Team-Data/2013-14/2-11-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="n">
         <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -684,43 +751,43 @@
         <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L2" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="O2" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="P2" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.778</v>
+        <v>0.78</v>
       </c>
       <c r="R2" t="n">
         <v>9.1</v>
       </c>
       <c r="S2" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T2" t="n">
-        <v>40.6</v>
+        <v>40.9</v>
       </c>
       <c r="U2" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="V2" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W2" t="n">
         <v>9</v>
@@ -732,31 +799,31 @@
         <v>4.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.8</v>
+        <v>102.1</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG2" t="n">
         <v>13</v>
       </c>
-      <c r="AG2" t="n">
-        <v>14</v>
-      </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
         <v>14</v>
@@ -777,10 +844,10 @@
         <v>7</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>6</v>
@@ -789,16 +856,16 @@
         <v>27</v>
       </c>
       <c r="AS2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU2" t="n">
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW2" t="n">
         <v>4</v>
@@ -813,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -926,28 +993,28 @@
         <v>-3.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL3" t="n">
         <v>25</v>
@@ -971,7 +1038,7 @@
         <v>14</v>
       </c>
       <c r="AS3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT3" t="n">
         <v>15</v>
@@ -986,10 +1053,10 @@
         <v>22</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-2.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG4" t="n">
         <v>17</v>
@@ -1135,7 +1202,7 @@
         <v>14</v>
       </c>
       <c r="AM4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN4" t="n">
         <v>12</v>
@@ -1147,7 +1214,7 @@
         <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR4" t="n">
         <v>25</v>
@@ -1159,7 +1226,7 @@
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV4" t="n">
         <v>11</v>
@@ -1177,7 +1244,7 @@
         <v>26</v>
       </c>
       <c r="BA4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BB4" t="n">
         <v>21</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -1212,88 +1279,88 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
         <v>29</v>
       </c>
       <c r="G5" t="n">
-        <v>0.442</v>
+        <v>0.431</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>35.6</v>
+        <v>35.4</v>
       </c>
       <c r="J5" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L5" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.352</v>
+        <v>0.348</v>
       </c>
       <c r="O5" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="P5" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.729</v>
+        <v>0.728</v>
       </c>
       <c r="R5" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S5" t="n">
         <v>33</v>
       </c>
       <c r="T5" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U5" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="V5" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W5" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.8</v>
+        <v>94.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.1</v>
+        <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>19</v>
@@ -1302,7 +1369,7 @@
         <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
         <v>27</v>
@@ -1311,7 +1378,7 @@
         <v>24</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
         <v>29</v>
@@ -1320,16 +1387,16 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
         <v>7</v>
       </c>
       <c r="AQ5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>28</v>
@@ -1341,7 +1408,7 @@
         <v>23</v>
       </c>
       <c r="AU5" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1350,7 +1417,7 @@
         <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY5" t="n">
         <v>22</v>
@@ -1359,13 +1426,13 @@
         <v>3</v>
       </c>
       <c r="BA5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB5" t="n">
         <v>27</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -1394,58 +1461,58 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
         <v>25</v>
       </c>
       <c r="G6" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
         <v>48.8</v>
       </c>
       <c r="I6" t="n">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
       <c r="J6" t="n">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.424</v>
+        <v>0.422</v>
       </c>
       <c r="L6" t="n">
         <v>5.9</v>
       </c>
       <c r="M6" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.336</v>
+        <v>0.334</v>
       </c>
       <c r="O6" t="n">
-        <v>17.8</v>
+        <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.768</v>
+        <v>0.772</v>
       </c>
       <c r="R6" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S6" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T6" t="n">
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="U6" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="V6" t="n">
         <v>15.7</v>
@@ -1460,28 +1527,28 @@
         <v>6.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.3</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.4</v>
+        <v>-0.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
         <v>3</v>
@@ -1508,19 +1575,19 @@
         <v>14</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
         <v>10</v>
       </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AU6" t="n">
         <v>13</v>
@@ -1538,13 +1605,13 @@
         <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA6" t="n">
         <v>9</v>
       </c>
       <c r="BB6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -1576,61 +1643,61 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" t="n">
         <v>33</v>
       </c>
       <c r="G7" t="n">
-        <v>0.365</v>
+        <v>0.353</v>
       </c>
       <c r="H7" t="n">
         <v>48.9</v>
       </c>
       <c r="I7" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J7" t="n">
         <v>85.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.425</v>
+        <v>0.424</v>
       </c>
       <c r="L7" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M7" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>0.359</v>
+        <v>0.354</v>
       </c>
       <c r="O7" t="n">
         <v>16.7</v>
       </c>
       <c r="P7" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.741</v>
+        <v>0.743</v>
       </c>
       <c r="R7" t="n">
         <v>12.6</v>
       </c>
       <c r="S7" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T7" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="U7" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="V7" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W7" t="n">
         <v>7.3</v>
@@ -1642,28 +1709,28 @@
         <v>6.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.8</v>
+        <v>96.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.5</v>
+        <v>-5.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF7" t="n">
         <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH7" t="n">
         <v>2</v>
@@ -1681,7 +1748,7 @@
         <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN7" t="n">
         <v>16</v>
@@ -1690,7 +1757,7 @@
         <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
         <v>22</v>
@@ -1705,22 +1772,22 @@
         <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY7" t="n">
         <v>27</v>
       </c>
       <c r="AZ7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA7" t="n">
         <v>21</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" t="n">
         <v>31</v>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>0.585</v>
+        <v>0.596</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
@@ -1785,16 +1852,16 @@
         <v>8.4</v>
       </c>
       <c r="M8" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="N8" t="n">
         <v>0.378</v>
       </c>
       <c r="O8" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P8" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="Q8" t="n">
         <v>0.8</v>
@@ -1803,49 +1870,49 @@
         <v>9.800000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T8" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="U8" t="n">
         <v>23.4</v>
       </c>
       <c r="V8" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X8" t="n">
         <v>4.1</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.3</v>
+        <v>104.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
         <v>28</v>
@@ -1890,7 +1957,7 @@
         <v>6</v>
       </c>
       <c r="AV8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW8" t="n">
         <v>5</v>
@@ -1902,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA8" t="n">
         <v>23</v>
@@ -1911,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="BC8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>-0.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
         <v>16</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
         <v>16</v>
@@ -2072,7 +2139,7 @@
         <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW9" t="n">
         <v>23</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -2200,16 +2267,16 @@
         <v>-2</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
         <v>19</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
@@ -2227,7 +2294,7 @@
         <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN10" t="n">
         <v>30</v>
@@ -2266,13 +2333,13 @@
         <v>16</v>
       </c>
       <c r="AZ10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA10" t="n">
         <v>13</v>
       </c>
       <c r="BB10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>4.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
         <v>19</v>
@@ -2406,7 +2473,7 @@
         <v>9</v>
       </c>
       <c r="AL11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>4.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
         <v>6</v>
@@ -2579,7 +2646,7 @@
         <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="n">
         <v>28</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2612,7 +2679,7 @@
         <v>4</v>
       </c>
       <c r="AT12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU12" t="n">
         <v>24</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2776,10 +2843,10 @@
         <v>23</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP13" t="n">
         <v>13</v>
@@ -2797,7 +2864,7 @@
         <v>4</v>
       </c>
       <c r="AU13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -2967,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
@@ -2988,7 +3055,7 @@
         <v>10</v>
       </c>
       <c r="AX14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -3032,52 +3099,52 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" t="n">
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" t="n">
-        <v>0.346</v>
+        <v>0.353</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
         <v>84</v>
       </c>
       <c r="K15" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L15" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O15" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P15" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R15" t="n">
         <v>9.5</v>
       </c>
       <c r="S15" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T15" t="n">
         <v>42.4</v>
@@ -3086,7 +3153,7 @@
         <v>23.1</v>
       </c>
       <c r="V15" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W15" t="n">
         <v>6.6</v>
@@ -3098,28 +3165,28 @@
         <v>4.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.4</v>
+        <v>100.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.2</v>
+        <v>-5</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
         <v>27</v>
@@ -3146,7 +3213,7 @@
         <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ15" t="n">
         <v>17</v>
@@ -3164,7 +3231,7 @@
         <v>8</v>
       </c>
       <c r="AV15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW15" t="n">
         <v>28</v>
@@ -3173,16 +3240,16 @@
         <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA15" t="n">
         <v>27</v>
       </c>
       <c r="BB15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC15" t="n">
         <v>25</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -3214,64 +3281,64 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" t="n">
         <v>23</v>
       </c>
       <c r="G16" t="n">
-        <v>0.549</v>
+        <v>0.54</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J16" t="n">
-        <v>82.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K16" t="n">
         <v>0.455</v>
       </c>
       <c r="L16" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>14.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.345</v>
+        <v>0.347</v>
       </c>
       <c r="O16" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="P16" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.752</v>
+        <v>0.749</v>
       </c>
       <c r="R16" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S16" t="n">
         <v>30.9</v>
       </c>
       <c r="T16" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U16" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V16" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W16" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X16" t="n">
         <v>4.6</v>
@@ -3292,7 +3359,7 @@
         <v>0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3307,10 +3374,10 @@
         <v>11</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ16" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK16" t="n">
         <v>12</v>
@@ -3325,10 +3392,10 @@
         <v>23</v>
       </c>
       <c r="AO16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP16" t="n">
         <v>28</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>27</v>
       </c>
       <c r="AQ16" t="n">
         <v>19</v>
@@ -3340,19 +3407,19 @@
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
       </c>
       <c r="AV16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW16" t="n">
         <v>16</v>
       </c>
       <c r="AX16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY16" t="n">
         <v>20</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.72</v>
+        <v>0.714</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
@@ -3417,22 +3484,22 @@
         <v>76.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.507</v>
+        <v>0.508</v>
       </c>
       <c r="L17" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M17" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O17" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P17" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="Q17" t="n">
         <v>0.759</v>
@@ -3444,22 +3511,22 @@
         <v>29.4</v>
       </c>
       <c r="T17" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="U17" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="V17" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W17" t="n">
         <v>9.1</v>
       </c>
       <c r="X17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Z17" t="n">
         <v>20.2</v>
@@ -3474,10 +3541,10 @@
         <v>5.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF17" t="n">
         <v>3</v>
@@ -3486,7 +3553,7 @@
         <v>3</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI17" t="n">
         <v>6</v>
@@ -3501,16 +3568,16 @@
         <v>12</v>
       </c>
       <c r="AM17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO17" t="n">
         <v>13</v>
       </c>
-      <c r="AN17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO17" t="n">
+      <c r="AP17" t="n">
         <v>12</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>11</v>
       </c>
       <c r="AQ17" t="n">
         <v>16</v>
@@ -3531,16 +3598,16 @@
         <v>19</v>
       </c>
       <c r="AW17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA17" t="n">
         <v>12</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-9.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3686,19 +3753,19 @@
         <v>16</v>
       </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ18" t="n">
         <v>18</v>
       </c>
       <c r="AR18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS18" t="n">
         <v>29</v>
@@ -3707,7 +3774,7 @@
         <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV18" t="n">
         <v>25</v>
@@ -3725,10 +3792,10 @@
         <v>17</v>
       </c>
       <c r="BA18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>3.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3883,13 +3950,13 @@
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT19" t="n">
         <v>3</v>
       </c>
       <c r="AU19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV19" t="n">
         <v>7</v>
@@ -3901,7 +3968,7 @@
         <v>30</v>
       </c>
       <c r="AY19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ19" t="n">
         <v>1</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -4020,19 +4087,19 @@
         <v>-1.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
         <v>19</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
         <v>12</v>
@@ -4068,7 +4135,7 @@
         <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU20" t="n">
         <v>16</v>
@@ -4077,7 +4144,7 @@
         <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX20" t="n">
         <v>1</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -4214,7 +4281,7 @@
         <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4244,13 +4311,13 @@
         <v>20</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS21" t="n">
         <v>28</v>
       </c>
       <c r="AT21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU21" t="n">
         <v>25</v>
@@ -4262,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="AX21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY21" t="n">
         <v>4</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>0.778</v>
+        <v>0.774</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
@@ -4333,19 +4400,19 @@
         <v>7.4</v>
       </c>
       <c r="M22" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="O22" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="P22" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.802</v>
+        <v>0.801</v>
       </c>
       <c r="R22" t="n">
         <v>11.1</v>
@@ -4357,7 +4424,7 @@
         <v>45.5</v>
       </c>
       <c r="U22" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="V22" t="n">
         <v>15.7</v>
@@ -4375,16 +4442,16 @@
         <v>21.6</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.9</v>
+        <v>105.1</v>
       </c>
       <c r="AC22" t="n">
         <v>7.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4402,7 +4469,7 @@
         <v>4</v>
       </c>
       <c r="AJ22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
@@ -4411,7 +4478,7 @@
         <v>17</v>
       </c>
       <c r="AM22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN22" t="n">
         <v>15</v>
@@ -4453,10 +4520,10 @@
         <v>21</v>
       </c>
       <c r="BA22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-5.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4584,7 +4651,7 @@
         <v>23</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
@@ -4593,19 +4660,19 @@
         <v>20</v>
       </c>
       <c r="AM23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO23" t="n">
         <v>21</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>20</v>
       </c>
       <c r="AP23" t="n">
         <v>21</v>
       </c>
       <c r="AQ23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR23" t="n">
         <v>26</v>
@@ -4617,10 +4684,10 @@
         <v>22</v>
       </c>
       <c r="AU23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW23" t="n">
         <v>15</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-10.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4775,13 +4842,13 @@
         <v>22</v>
       </c>
       <c r="AM24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN24" t="n">
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
         <v>15</v>
@@ -4793,10 +4860,10 @@
         <v>10</v>
       </c>
       <c r="AS24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU24" t="n">
         <v>11</v>
@@ -4805,7 +4872,7 @@
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX24" t="n">
         <v>26</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -4852,55 +4919,55 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" t="n">
         <v>30</v>
       </c>
       <c r="F25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>0.588</v>
+        <v>0.6</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J25" t="n">
-        <v>84.2</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K25" t="n">
         <v>0.459</v>
       </c>
       <c r="L25" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.37</v>
+        <v>0.369</v>
       </c>
       <c r="O25" t="n">
         <v>18.3</v>
       </c>
       <c r="P25" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.764</v>
+        <v>0.762</v>
       </c>
       <c r="R25" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S25" t="n">
         <v>31.8</v>
       </c>
       <c r="T25" t="n">
-        <v>43.3</v>
+        <v>43.5</v>
       </c>
       <c r="U25" t="n">
         <v>19.1</v>
@@ -4915,22 +4982,22 @@
         <v>4.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z25" t="n">
         <v>21.9</v>
       </c>
       <c r="AA25" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>104.9</v>
+        <v>105.1</v>
       </c>
       <c r="AC25" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4939,7 +5006,7 @@
         <v>8</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH25" t="n">
         <v>23</v>
@@ -4954,22 +5021,22 @@
         <v>8</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM25" t="n">
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP25" t="n">
         <v>11</v>
       </c>
-      <c r="AP25" t="n">
-        <v>12</v>
-      </c>
       <c r="AQ25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR25" t="n">
         <v>12</v>
@@ -4978,13 +5045,13 @@
         <v>16</v>
       </c>
       <c r="AT25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU25" t="n">
         <v>30</v>
       </c>
       <c r="AV25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW25" t="n">
         <v>8</v>
@@ -4999,10 +5066,10 @@
         <v>23</v>
       </c>
       <c r="BA25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -5034,58 +5101,58 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" t="n">
         <v>36</v>
       </c>
       <c r="F26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.706</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="J26" t="n">
-        <v>88</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="L26" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="M26" t="n">
         <v>24.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P26" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.82</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="R26" t="n">
         <v>12.8</v>
       </c>
       <c r="S26" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="T26" t="n">
-        <v>46.4</v>
+        <v>46.5</v>
       </c>
       <c r="U26" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="V26" t="n">
         <v>13.7</v>
@@ -5100,31 +5167,31 @@
         <v>3.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA26" t="n">
         <v>20.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>107.7</v>
+        <v>108</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>4</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG26" t="n">
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5136,7 +5203,7 @@
         <v>13</v>
       </c>
       <c r="AL26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM26" t="n">
         <v>5</v>
@@ -5148,7 +5215,7 @@
         <v>7</v>
       </c>
       <c r="AP26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5172,16 +5239,16 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY26" t="n">
         <v>5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB26" t="n">
         <v>1</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" t="n">
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" t="n">
-        <v>0.327</v>
+        <v>0.333</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5234,7 +5301,7 @@
         <v>37.1</v>
       </c>
       <c r="J27" t="n">
-        <v>83.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K27" t="n">
         <v>0.446</v>
@@ -5243,76 +5310,76 @@
         <v>6.6</v>
       </c>
       <c r="M27" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O27" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="P27" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.775</v>
+        <v>0.777</v>
       </c>
       <c r="R27" t="n">
         <v>12.1</v>
       </c>
       <c r="S27" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T27" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U27" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="V27" t="n">
         <v>14.9</v>
       </c>
       <c r="W27" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X27" t="n">
         <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB27" t="n">
         <v>101.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG27" t="n">
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
         <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK27" t="n">
         <v>18</v>
@@ -5321,7 +5388,7 @@
         <v>24</v>
       </c>
       <c r="AM27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN27" t="n">
         <v>25</v>
@@ -5336,7 +5403,7 @@
         <v>7</v>
       </c>
       <c r="AR27" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS27" t="n">
         <v>17</v>
@@ -5348,16 +5415,16 @@
         <v>29</v>
       </c>
       <c r="AV27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ27" t="n">
         <v>30</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>6.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>2.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF29" t="n">
         <v>12</v>
@@ -5676,7 +5743,7 @@
         <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK29" t="n">
         <v>23</v>
@@ -5706,10 +5773,10 @@
         <v>21</v>
       </c>
       <c r="AT29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
@@ -5718,7 +5785,7 @@
         <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY29" t="n">
         <v>14</v>
@@ -5733,7 +5800,7 @@
         <v>17</v>
       </c>
       <c r="BC29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30" t="n">
         <v>33</v>
       </c>
       <c r="G30" t="n">
-        <v>0.353</v>
+        <v>0.34</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
@@ -5780,7 +5847,7 @@
         <v>35.6</v>
       </c>
       <c r="J30" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K30" t="n">
         <v>0.439</v>
@@ -5798,28 +5865,28 @@
         <v>16.1</v>
       </c>
       <c r="P30" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.746</v>
+        <v>0.748</v>
       </c>
       <c r="R30" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S30" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="T30" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="U30" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V30" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W30" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X30" t="n">
         <v>4.6</v>
@@ -5828,28 +5895,28 @@
         <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB30" t="n">
         <v>94.09999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-6.1</v>
+        <v>-6.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF30" t="n">
         <v>23</v>
       </c>
       <c r="AG30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH30" t="n">
         <v>23</v>
@@ -5891,7 +5958,7 @@
         <v>24</v>
       </c>
       <c r="AU30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV30" t="n">
         <v>12</v>
@@ -5900,7 +5967,7 @@
         <v>27</v>
       </c>
       <c r="AX30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY30" t="n">
         <v>17</v>
@@ -5909,7 +5976,7 @@
         <v>18</v>
       </c>
       <c r="BA30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" t="n">
         <v>25</v>
       </c>
       <c r="F31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G31" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>48.9</v>
@@ -5962,7 +6029,7 @@
         <v>37.9</v>
       </c>
       <c r="J31" t="n">
-        <v>84.3</v>
+        <v>84.5</v>
       </c>
       <c r="K31" t="n">
         <v>0.449</v>
@@ -5971,10 +6038,10 @@
         <v>7.7</v>
       </c>
       <c r="M31" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.376</v>
+        <v>0.378</v>
       </c>
       <c r="O31" t="n">
         <v>15.7</v>
@@ -5983,25 +6050,25 @@
         <v>21.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="R31" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="S31" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T31" t="n">
-        <v>42.5</v>
+        <v>42.7</v>
       </c>
       <c r="U31" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V31" t="n">
         <v>15</v>
       </c>
       <c r="W31" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X31" t="n">
         <v>4.8</v>
@@ -6016,22 +6083,22 @@
         <v>19.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF31" t="n">
         <v>14</v>
       </c>
-      <c r="AF31" t="n">
-        <v>15</v>
-      </c>
       <c r="AG31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH31" t="n">
         <v>1</v>
@@ -6049,7 +6116,7 @@
         <v>15</v>
       </c>
       <c r="AM31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN31" t="n">
         <v>6</v>
@@ -6058,22 +6125,22 @@
         <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ31" t="n">
         <v>24</v>
       </c>
       <c r="AR31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS31" t="n">
         <v>15</v>
       </c>
       <c r="AT31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV31" t="n">
         <v>16</v>
@@ -6091,7 +6158,7 @@
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-11-2013-14</t>
+          <t>2014-02-11</t>
         </is>
       </c>
     </row>
